--- a/datos_softplus_verifbounds_target1_tolper1_mix.xlsx
+++ b/datos_softplus_verifbounds_target1_tolper1_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>0.005880165100097656</v>
+        <v>0.005868721008300781</v>
       </c>
       <c r="D1" t="n">
-        <v>3.745003128051758</v>
+        <v>3.310924530029297</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>1.019</v>
+        <v>1.11966</v>
       </c>
       <c r="H1" t="n">
-        <v>1.32951</v>
+        <v>1.46201</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006036186218261718</v>
+        <v>0.005263853073120117</v>
       </c>
       <c r="D2" t="n">
-        <v>3.313036394119263</v>
+        <v>2.667469358444214</v>
       </c>
       <c r="E2" t="n">
-        <v>28.63906388282776</v>
+        <v>34.59825863838196</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -483,158 +483,18 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.92878</v>
+        <v>1.02054</v>
       </c>
       <c r="H2" t="n">
-        <v>1.31762</v>
+        <v>1.54232</v>
       </c>
       <c r="I2" t="n">
-        <v>1.41621</v>
+        <v>1.62963</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.005475139617919922</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.60178599357605</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.82610549926758</v>
-      </c>
-      <c r="F3" t="n">
-        <v>364.0434264659881</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8866399999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.27922</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.6561</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.74562</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005707168579101562</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.40164484977722</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8218800000000002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7136799999999999</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005681729316711426</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25.49937806129456</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1145.717094421387</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7610299999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.86385</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.09493</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.005640697479248047</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.5052346944809</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1190.950581979752</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1200.002094435692</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7562399999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8280000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.06627</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.42542</v>
       </c>
     </row>
   </sheetData>

--- a/datos_softplus_verifbounds_target1_tolper1_mix.xlsx
+++ b/datos_softplus_verifbounds_target1_tolper1_mix.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,146 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00557098388671875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.925259494781494</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.15156688690185</v>
+      </c>
+      <c r="F3" t="n">
+        <v>434.1805733203888</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.41354</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.82216</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.87203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005925393104553223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.91067793369293</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.90305</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.96662</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.005806493759155274</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.79915940761566</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1138.891638374329</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8361699999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9496700000000002</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.20495</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.005993032455444336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.38394644260406</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1182.750702190399</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.002228283882</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.83095</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9099299999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.17403</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.59387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
